--- a/Executions_times/executionTimesV0.xlsx
+++ b/Executions_times/executionTimesV0.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ούρδας Αντώνης\Documents\Docker\pds-codebase\Parallel-and-Distributed-Systems-3rd-Assignment\Executions_times\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925CD81D-6AC5-499E-A347-01B9BB143BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E2C7F-443F-4542-A115-E1B845A8C3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>Patch size</t>
   </si>
@@ -1216,7 +1224,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Patch size</a:t>
+                  <a:t>Image size</a:t>
                 </a:r>
                 <a:endParaRPr lang="el-GR"/>
               </a:p>
@@ -1483,6 +1491,2401 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V1  execution time in ms</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>for different patch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>sizes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Φύλλο1!$A$2,Φύλλο1!$A$5,Φύλλο1!$A$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Φύλλο1!$C$23,Φύλλο1!$C$26,Φύλλο1!$C$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>173.45088200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>636.756348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3424.9106449999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5EA-4471-84D5-8A47A1DE126A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Φύλλο1!$A$2,Φύλλο1!$A$5,Φύλλο1!$A$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Φύλλο1!$C$24,Φύλλο1!$C$27,Φύλλο1!$C$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>341.157532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1092.486328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13963.355469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5EA-4471-84D5-8A47A1DE126A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Φύλλο1!$A$2,Φύλλο1!$A$5,Φύλλο1!$A$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Φύλλο1!$C$25,Φύλλο1!$C$28,Φύλλο1!$C$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>429.53832999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1746.8618160000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41308.445312000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E5EA-4471-84D5-8A47A1DE126A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1171536416"/>
+        <c:axId val="1090530112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1171536416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Image size</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090530112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1090530112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution time in ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171536416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V1  execution time in ms for different image</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Φύλλο1!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$C$23:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>173.45088200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>341.157532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429.53832999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C94C-4B85-BA13-473CD65236A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Φύλλο1!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$C$26:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>636.756348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1092.486328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1746.8618160000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C94C-4B85-BA13-473CD65236A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Φύλλο1!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$C$29:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3424.9106449999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13963.355469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41308.445312000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C94C-4B85-BA13-473CD65236A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1173633888"/>
+        <c:axId val="1228119472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1173633888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Patch size</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1228119472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1228119472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time in ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1173633888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> with respect to image size for various patch sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Φύλλο1!$A$2,Φύλλο1!$A$5,Φύλλο1!$A$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Φύλλο1!$C$33,Φύλλο1!$C$36,Φύλλο1!$C$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.079590970312854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.720852183793227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.71208869012696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B665-4BC4-B6DC-098CB3F39DB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Φύλλο1!$A$2,Φύλλο1!$A$5,Φύλλο1!$A$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Φύλλο1!$C$34,Φύλλο1!$C$37,Φύλλο1!$C$40)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22.881007358207764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.61255102864776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.496156129333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B665-4BC4-B6DC-098CB3F39DB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Φύλλο1!$A$2,Φύλλο1!$A$5,Φύλλο1!$A$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Φύλλο1!$C$35,Φύλλο1!$C$38,Φύλλο1!$C$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32.798937873600245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.07316122593636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.723010086252827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B665-4BC4-B6DC-098CB3F39DB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1171536416"/>
+        <c:axId val="1090530112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1171536416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Image size</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090530112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1090530112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sppedup</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171536416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>V1  execution time in ms for different image</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Φύλλο1!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$C$23:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>173.45088200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>341.157532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429.53832999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E94E-413F-9DCE-00172BF1F5D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Φύλλο1!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$C$26:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>636.756348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1092.486328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1746.8618160000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E94E-413F-9DCE-00172BF1F5D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Φύλλο1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Φύλλο1!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Φύλλο1!$C$29:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3424.9106449999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13963.355469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41308.445312000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E94E-413F-9DCE-00172BF1F5D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1173633888"/>
+        <c:axId val="1228119472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1173633888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Patch size</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1228119472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1228119472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time in ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1173633888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1563,6 +3966,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2080,6 +4643,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2664,6 +7291,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295372</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Γράφημα 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66691578-6AA2-4D63-95C0-248BBCD4452E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>426000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50486</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Γράφημα 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC82BA12-6DEE-4CE3-9303-63D16F1487DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>96997</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Γράφημα 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE143EF-56F1-4D4E-9F99-EC9249BA285B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>273600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>92048</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Γράφημα 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785F590F-9CE5-4CE7-8997-0B26EB015083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2935,10 +7714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3045,6 +7824,171 @@
         <v>3788.9349459999999</v>
       </c>
     </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>173.45088200000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>341.157532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>429.53832999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>128</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>636.756348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>128</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1092.486328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>128</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>1746.8618160000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>256</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>3424.9106449999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>256</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>13963.355469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>256</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>41308.445312000003</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <f>C2/C23*1000</f>
+        <v>18.079590970312854</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <f>C3/C24*1000</f>
+        <v>22.881007358207764</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <f t="shared" ref="C35:C38" si="0">C4/C25*1000</f>
+        <v>32.798937873600245</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>77.720852183793227</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>117.61255102864776</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>128.07316122593636</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <f>C8/C29*1000</f>
+        <v>237.71208869012696</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <f>C9/C30*1000</f>
+        <v>142.496156129333</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <f>C10/C31*1000</f>
+        <v>91.723010086252827</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
